--- a/data/trans_camb/P12_1_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 7,23</t>
+          <t>-3,74; 6,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 0,26</t>
+          <t>-10,15; -0,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 2,17</t>
+          <t>-7,06; 2,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 4,48</t>
+          <t>-8,39; 3,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,78; -2,57</t>
+          <t>-13,48; -2,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 2,24</t>
+          <t>-8,59; 2,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 4,2</t>
+          <t>-3,61; 4,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,78; -2,71</t>
+          <t>-9,79; -2,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 1,1</t>
+          <t>-6,0; 0,91</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 55,27</t>
+          <t>-21,42; 50,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 4,34</t>
+          <t>-55,89; -3,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-39,46; 16,17</t>
+          <t>-39,16; 16,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,15; 27,78</t>
+          <t>-37,4; 23,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,44; -10,56</t>
+          <t>-59,59; -14,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,74; 15,68</t>
+          <t>-37,36; 14,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 26,63</t>
+          <t>-19,29; 30,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,95; -16,89</t>
+          <t>-50,36; -16,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,74; 8,15</t>
+          <t>-31,55; 6,14</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 8,39</t>
+          <t>-1,33; 9,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 2,15</t>
+          <t>-6,47; 2,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 4,91</t>
+          <t>-4,2; 5,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 11,46</t>
+          <t>-1,62; 11,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -2,48</t>
+          <t>-13,17; -1,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 5,03</t>
+          <t>-6,57; 4,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 7,76</t>
+          <t>-0,53; 8,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,46; -1,6</t>
+          <t>-8,51; -1,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,27</t>
+          <t>-4,25; 3,48</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 87,57</t>
+          <t>-10,05; 97,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-50,39; 23,84</t>
+          <t>-45,84; 31,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,16; 51,79</t>
+          <t>-28,71; 56,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 63,01</t>
+          <t>-7,26; 62,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,8; -13,0</t>
+          <t>-56,59; -9,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,02; 27,9</t>
+          <t>-26,94; 27,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 53,69</t>
+          <t>-3,07; 54,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,68; -10,4</t>
+          <t>-46,48; -7,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 22,83</t>
+          <t>-22,45; 24,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 4,02</t>
+          <t>-5,37; 3,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,66; -2,6</t>
+          <t>-11,02; -2,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,96; -1,58</t>
+          <t>-17,01; -1,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 12,77</t>
+          <t>-3,09; 12,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 8,63</t>
+          <t>-9,39; 9,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 6,78</t>
+          <t>-10,1; 5,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 4,92</t>
+          <t>-3,01; 5,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,34; -1,39</t>
+          <t>-9,65; -1,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,92; -0,96</t>
+          <t>-15,47; -1,25</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,6; 25,79</t>
+          <t>-26,18; 21,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,85; -15,01</t>
+          <t>-53,27; -15,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-83,03; -7,74</t>
+          <t>-81,59; -9,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,34; 78,28</t>
+          <t>-12,15; 73,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,93; 50,77</t>
+          <t>-38,96; 56,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,39; 42,33</t>
+          <t>-37,27; 34,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 28,43</t>
+          <t>-14,08; 30,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,86; -7,33</t>
+          <t>-45,25; -7,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-74,87; -5,13</t>
+          <t>-73,86; -6,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,59; -0,0</t>
+          <t>-6,45; -0,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -4,03</t>
+          <t>-9,93; -3,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,13; -2,86</t>
+          <t>-9,4; -2,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 7,52</t>
+          <t>-1,98; 7,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,61; -2,57</t>
+          <t>-10,48; -2,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 43,34</t>
+          <t>-5,14; 43,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,81</t>
+          <t>-3,52; 1,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -3,87</t>
+          <t>-8,82; -4,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 27,18</t>
+          <t>-5,48; 27,82</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,52; 0,32</t>
+          <t>-30,06; -0,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,76; -22,18</t>
+          <t>-45,68; -20,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,16; -15,71</t>
+          <t>-42,91; -15,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 35,51</t>
+          <t>-7,6; 35,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,34; -11,96</t>
+          <t>-40,79; -11,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 198,83</t>
+          <t>-21,96; 197,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 9,13</t>
+          <t>-15,69; 9,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-39,86; -20,11</t>
+          <t>-39,44; -20,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 125,17</t>
+          <t>-25,69; 139,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 0,39</t>
+          <t>-10,14; 0,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,8; -0,99</t>
+          <t>-11,46; -1,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 2,42</t>
+          <t>-9,11; 2,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 7,61</t>
+          <t>-2,93; 7,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 0,97</t>
+          <t>-8,54; 0,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -0,59</t>
+          <t>-11,3; -0,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 3,06</t>
+          <t>-4,52; 2,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,63; -1,87</t>
+          <t>-8,85; -1,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -0,6</t>
+          <t>-8,95; -1,03</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-43,72; 2,37</t>
+          <t>-46,42; -0,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-48,22; -5,38</t>
+          <t>-49,57; -6,74</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-37,42; 15,39</t>
+          <t>-39,63; 16,93</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 34,54</t>
+          <t>-10,39; 31,17</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 4,4</t>
+          <t>-30,65; 3,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,67; -2,8</t>
+          <t>-42,15; -4,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 14,6</t>
+          <t>-18,08; 14,21</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-35,14; -9,37</t>
+          <t>-35,41; -6,93</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-33,9; -2,85</t>
+          <t>-35,89; -5,02</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 4,7</t>
+          <t>-4,25; 4,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 2,92</t>
+          <t>-5,42; 3,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 8,89</t>
+          <t>-4,47; 7,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,43; 8,73</t>
+          <t>1,54; 8,71</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,45; -3,07</t>
+          <t>-9,49; -2,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,67; -0,96</t>
+          <t>-7,75; -1,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,94; 7,16</t>
+          <t>1,13; 7,44</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -2,71</t>
+          <t>-8,21; -2,75</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,0; -1,0</t>
+          <t>-6,97; -0,82</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-41,85; 84,35</t>
+          <t>-42,3; 84,93</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-55,06; 52,24</t>
+          <t>-55,22; 60,1</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-51,53; 152,87</t>
+          <t>-50,83; 133,13</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,86; 42,41</t>
+          <t>6,55; 43,5</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-41,04; -15,36</t>
+          <t>-40,84; -12,89</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,03; -5,12</t>
+          <t>-33,96; -6,26</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>4,83; 40,7</t>
+          <t>5,37; 41,9</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-40,45; -14,95</t>
+          <t>-40,17; -15,85</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-34,46; -5,26</t>
+          <t>-33,7; -4,51</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 0,78</t>
+          <t>-2,9; 0,74</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,98; -3,57</t>
+          <t>-7,11; -3,67</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,52; -2,33</t>
+          <t>-7,12; -2,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,43</t>
+          <t>1,46; 5,63</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -3,68</t>
+          <t>-7,69; -3,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 15,95</t>
+          <t>-4,02; 16,23</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,66</t>
+          <t>-0,18; 2,65</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,75; -4,13</t>
+          <t>-6,78; -4,19</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 8,32</t>
+          <t>-4,48; 7,33</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 4,86</t>
+          <t>-16,31; 4,43</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-39,01; -21,87</t>
+          <t>-39,11; -22,5</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-42,33; -14,71</t>
+          <t>-39,96; -15,36</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>6,33; 25,56</t>
+          <t>6,28; 26,22</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-32,69; -17,21</t>
+          <t>-32,97; -18,27</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 71,47</t>
+          <t>-17,79; 72,82</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 14,17</t>
+          <t>-0,83; 14,04</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-33,35; -21,89</t>
+          <t>-33,07; -22,01</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 43,2</t>
+          <t>-22,49; 37,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_1_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
